--- a/src/main/java/com/hsy/case/HiveApi_test_case.xlsx
+++ b/src/main/java/com/hsy/case/HiveApi_test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户存在" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="wspush" sheetId="5" r:id="rId5"/>
     <sheet name="获取短信验证码" sheetId="6" r:id="rId6"/>
     <sheet name="用户权限" sheetId="7" r:id="rId7"/>
+    <sheet name="获取用户资料" sheetId="8" r:id="rId8"/>
+    <sheet name="修改用户资料" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="182">
   <si>
     <t>Token</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -777,6 +779,33 @@
   </si>
   <si>
     <t>无cookie获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/profile</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无cookie获取用户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"shayang888"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2925,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2998,4 +3027,152 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/hsy/case/HiveApi_test_case.xlsx
+++ b/src/main/java/com/hsy/case/HiveApi_test_case.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="187">
   <si>
     <t>Token</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -806,6 +806,26 @@
   </si>
   <si>
     <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改name为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改name为20位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"就是快递发12345qwert!@#$%"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3111,17 +3131,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="4"/>
@@ -3171,6 +3191,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/com/hsy/case/HiveApi_test_case.xlsx
+++ b/src/main/java/com/hsy/case/HiveApi_test_case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="用户存在" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,13 @@
     <sheet name="退出" sheetId="4" r:id="rId4"/>
     <sheet name="wspush" sheetId="5" r:id="rId5"/>
     <sheet name="获取短信验证码" sheetId="6" r:id="rId6"/>
-    <sheet name="用户权限" sheetId="7" r:id="rId7"/>
-    <sheet name="获取用户资料" sheetId="8" r:id="rId8"/>
-    <sheet name="修改用户资料" sheetId="9" r:id="rId9"/>
+    <sheet name="短信验证码校验" sheetId="10" r:id="rId7"/>
+    <sheet name="用户权限" sheetId="7" r:id="rId8"/>
+    <sheet name="获取用户资料" sheetId="8" r:id="rId9"/>
+    <sheet name="修改用户资料" sheetId="9" r:id="rId10"/>
+    <sheet name="统计" sheetId="11" r:id="rId11"/>
+    <sheet name="设备操作" sheetId="16" r:id="rId12"/>
+    <sheet name="获取车辆轨迹" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="479">
   <si>
     <t>Token</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -778,10 +782,6 @@
     <t>/users/privileges</t>
   </si>
   <si>
-    <t>无cookie获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取用户资料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,10 +793,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无cookie获取用户资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,6 +822,1171 @@
   </si>
   <si>
     <t>{"name":"就是快递发12345qwert!@#$%"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":null"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改name为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile":"13011202080"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改mobile为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改mobile为错误的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile":"123456789"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改mobile为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/captcha/sms/validation</t>
+  </si>
+  <si>
+    <t>{"sms_captcha":"51dfsf5"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sms_captcha":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sms_captcha":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sms_captcha":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"address":"四川省成都市武侯区"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改address为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"address":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改address为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"address":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改address为超长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"address":"Tian Hui Lu, Wuhou Qu, Chengdu Shi, Sichuan Sheng, China, 610041"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"country":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改country为不存在的国家编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"country":9999999}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改country为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"country":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改country为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"country":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"province":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改province为不存在的省份编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"province":9999999}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改province为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"province":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改province为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"province":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"city":"成都市"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改city为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"city":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改city为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"city":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"postalcode":"610000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"postalcode":"Mount Street Upper, and Lower"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"city":"San Gabriel"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改邮编为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改邮编为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"postalcode":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"postalcode":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"company":"成都盛宇百祺"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{”company":"Futronic Technology Company Limited"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改company为超长字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"company":"jhsdgfhsdhfghsdfghjdsfgjhsdfshdfhjsdfgjhdfdsffsdgfhsdgfhgsdhfgjhdshdf"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改company为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改company为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"company":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"company":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改titile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"titile":"qwert"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改name超过20位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改title为20位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"就是快递发12345qwert!@#$%"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改title超过20位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"就是快递发12345qwert!@#$%111111sdfsdfdffdsdfsdfsdfsdfsdfsdfsdfsd"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"就是快递发12345qwert!@#$%sdfsfsfsfsdfs22323f22f23f23f3f23f44@@@@"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改titile为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改title为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端传devid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"devid":"a0af74a6","from":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安全问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"squestion":"how you doing?"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安全问题为超长字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"squestion":"jhsdgfhsdhfghsdfghjdsfgjhsdfshdfhjsdfgjhdfdsffsdgfhsdgfhgsdhfgjhdshdf"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安全问题为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"squestion":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安全问题为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"squestion":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安全问题答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sanswer":"ni shi yi ge sha bi"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安全问题答案为超长字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sanswer":"jhsdgfhsdhfghsdfghjdsfgjhsdfshdfhjsdfgjhdfdsffsdgfhsdgfhgsdhfgjhdshdf"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安全问题答案为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安全问题答案为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sanswer":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sanswer":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间格式为12小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间格式为24小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"time_format":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"time_format":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间格式为错误的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"time_format":-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间格式为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间格式为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"time_format":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"time_format":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改单位为公制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改单位为英制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改单位为错误的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改单位为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改单位为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期格式为dd/mm/yyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"date_format":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期格式为mm/dd/yyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"date_format":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速公制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0,"slow_speed":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速英制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1,"slow_speed_us:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速公制为错误的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0,"slow_speed":-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速英制为错误的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1,"slow_speed_us:-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速公制为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速英制为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0,"slow_speed":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1,"slow_speed_us":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速公制为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速英制为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0,"slow_speed":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1,"slow_speed_us":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速公制为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改慢速英制为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0,"slow_speed":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1,"slow_speed_us":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超速公制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超速英制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0,"speed_violation":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1,"speed_violation_us":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超速公制为错误的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超速英制为错误的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0,"speed_violation":-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1,"speed_violation_us":-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超速公制为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超速英制为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0,"speed_violation":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1,"speed_violation_us":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超速公制为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超速英制为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":0,"speed_violation":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"units":1,"speed_violation_us":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"timezone_city":"Asia/ShangHai"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为不存在的时区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"timezone_city":"Asia/US"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时区为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"timezone_city":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时区空null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"timezone_city":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取统计信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/analytics</t>
+  </si>
+  <si>
+    <t>获取离线车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/offline</t>
+  </si>
+  <si>
+    <t>获取设备拔出车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/connect_off</t>
+  </si>
+  <si>
+    <t>获取设备低电车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/low_power</t>
+  </si>
+  <si>
+    <t>获取设备进入紧急模式车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/emergency_mode</t>
+  </si>
+  <si>
+    <t>获取设备列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devices</t>
+  </si>
+  <si>
+    <t>{"sn":"3728800369","activation_code":"B338G8ANBW"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":1,"safe_mode":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":1,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sn":"3728811368","activation_code":"B338G8ANBW"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sn":"sdfs","activation_code":"B338G8ANBW"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sn":"3728811368","activation_code":"123123123"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sn":"","activation_code":"B338G8ANBW"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sn":null,"activation_code":"B338G8ANBW"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sn":"3728800369","activation_code":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端激活码为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端sn为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端激活码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端sn为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端激活码不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端sn不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端sn和激活码不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端(有safe_mode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端(无safe_mode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端不传sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM绑定终端不传激活码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sn":"3728811368"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":1,"safe_mode":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端group_id不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端group_id为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":1,"safe_mode":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端group_id为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":null,"activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":1,"safe_mode":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端激活码不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"123","vin":"1111","cnum":"川A88888","icon":1,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端激活码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"","vin":"1111","cnum":"川A88888","icon":1,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端激活码为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":null,"vin":"1111","cnum":"川A88888","icon":1,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端vin为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"activation_code":"B338G8ANBW"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"B338G8ANBW","vin":"","cnum":"川A88888","icon":1,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端vin为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"B338G8ANBW","vin":null,"cnum":"川A88888","icon":1,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端cnum为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"B338G8ANBW","vin":"1111","cnum":"","icon":1,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端cnum为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"B338G8ANBW","vin":"1111","cnum":null,"icon":1,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端icon为错误的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":-99,"safe_mode":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端icon为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":null,"safe_mode":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端icon为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":"","safe_mode":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"B338G8ANBW","vin":"1111","cnum":"川A88888","icon":5,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端safe_mode为错误的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":2,"safe_mode":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端safe_mode为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端safe_mode为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":2,"safe_mode":-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":2,"safe_mode":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端不传group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"activation_code":"TYB93CEAZJ","vin":"1111","cnum":"川A88888","icon":2,"safe_mode":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端不传activation_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","vin":"1111","cnum":"川A88888","icon":2,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端不传vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","cnum":"川A88888","icon":2,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端不传cnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","vin":"1111","icon":2,"safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端不传icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内绑定终端不传safe_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","cnum":"川A88888","vin":"1111","safe_mode":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"group_id":"455ac4604a174991a4324f02aca5ae19","activation_code":"TYB93CEAZJ","cnum":"川A88888","vin":"1111","icon":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sn":"3728800369","activation_code":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个设备信息不存在的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devices/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取车辆轨迹数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devices/3728800369</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/3728800369/track</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/3/track</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1445785648,"end_time":1445934585,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间早于开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1445934585,"end_time":1445785648,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":"","end_time":1445934585,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间为-28800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":0,"end_time":1445934585,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":null,"end_time":1445934585,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"end_time":1445934585,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/3728800370/track</t>
+  </si>
+  <si>
+    <t>/assets/3728800371/track</t>
+  </si>
+  <si>
+    <t>/assets/3728800372/track</t>
+  </si>
+  <si>
+    <t>时间跨度超过60天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":-28800,"end_time":1445934585,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1496073600,"end_time":1501516800,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1496073600,"end_time":"","daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1496073600,"end_time":0,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1496073600,"end_time":null,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间为-28800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/3728800373/track</t>
+  </si>
+  <si>
+    <t>{"start_time":1496073600,"end_time":-28800,"daily_start_time":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1496073600,"daily_start_time":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +2105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,6 +2140,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,7 +2428,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1479,12 +2643,2537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2113,7 +5802,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2385,7 +6074,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2462,10 +6151,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2541,13 +6230,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>122</v>
@@ -2558,13 +6247,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>122</v>
@@ -2575,13 +6264,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>122</v>
@@ -2592,13 +6281,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>122</v>
@@ -2609,13 +6298,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>122</v>
@@ -2626,18 +6315,35 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>122</v>
       </c>
       <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2652,7 +6358,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2972,10 +6678,147 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3029,32 +6872,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3096,29 +6925,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="H2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3127,106 +6942,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>